--- a/biology/Botanique/Pyropia/Pyropia.xlsx
+++ b/biology/Botanique/Pyropia/Pyropia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyropia est un genre d’algues rouges de la famille des Bangiaceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (30 nov. 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (30 nov. 2012) :
 Pyropia abbottiae (V.Krishnamurthy) S.C.Lindstrom
 Pyropia acanthophora (E.C.Oliveira &amp; Coll) M.C.Oliveira, D.Milstein &amp; E.C.Oliveira
 Pyropia aeodes (N.J.Griffin, J.J. Bolton &amp; R.J.Anderson) J.E.Sutherland
@@ -569,7 +583,7 @@
 Pyropia vietnamensis (Tak. Tanaka &amp; P.H.Ho) J.E.Sutherland &amp; Monotilla
 Pyropia virididentata (W.A.Nelson) W.A.Nelson
 Pyropia yezoensis (Ueda) M.S.Hwang &amp; H.G.Choi
-Selon NCBI  (30 nov. 2012)[2] :
+Selon NCBI  (30 nov. 2012) :
 Pyropia abbottiae
 Pyropia acanthophora
 variété Pyropia acanthophora var. brasiliensis
@@ -619,7 +633,7 @@
 Pyropia yezoensis
 forme Pyropia yezoensis f. narawaensis
 forme Pyropia yezoensis f. yezoensis
-Selon World Register of Marine Species                               (30 nov. 2012)[3] :
+Selon World Register of Marine Species                               (30 nov. 2012) :
 Pyropia abbottiae (V.Krishnamurthy) S.C.Lindstrom, 2011
 Pyropia acanthophora (E.C.Oliveira &amp; Coll) M.C.Oliveira, D.Milstein &amp; E.C.Oliveira, 2011
 Pyropia aeodes (N.J.Griffin, J.J. Bolton &amp; R.J.Anderson) J.E.Sutherland, 2011
